--- a/src/attributions/attributions_ig_traj_367.xlsx
+++ b/src/attributions/attributions_ig_traj_367.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1687290483965491</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.001119277132847258</v>
+        <v>-0.06348608414014617</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2150780536317457</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.019262956463108</v>
+        <v>0.004876747476953237</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1803624964379595</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.001124008029713575</v>
+        <v>-0.005803505760767809</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.19490196695336</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.001661377266809763</v>
+        <v>0.0008140415976441889</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06054150791995051</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.01134435228795742</v>
+        <v>-0.08595621238231291</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.01660286692215323</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.04058588991957866</v>
+        <v>-0.005684954406440778</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1079,82 +1079,82 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02723177190965334</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01243503625533428</v>
+        <v>0.03782319532730047</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.005604765158112685</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01983399287849493</v>
+        <v>-0.00216210829305749</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03412532202255742</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02715609257510794</v>
+        <v>-0.02600752721072319</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.03476254392935594</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03730102233808744</v>
+        <v>0.06772704628375234</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04913957505230053</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0243911476075447</v>
+        <v>-0.1514092914727142</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.0762025179529596</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.08073743546551529</v>
+        <v>0.008033511219956895</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06769867346296532</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0006774840139124757</v>
+        <v>-0.01489799805321056</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.06874910457888644</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0115495342531047</v>
+        <v>0.02466433762295652</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03539959746225584</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.0005177345397011844</v>
+        <v>0.0249503904145572</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.04427272970730179</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04197366098843678</v>
+        <v>-0.07679347355527427</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
@@ -1220,73 +1220,73 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0488568790115274</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.02281189874750929</v>
+        <v>-0.06004265506089797</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02387651955195982</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.04406444960120759</v>
+        <v>-0.01591677721378175</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.02781414168967869</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.0003824033092731352</v>
+        <v>0.03130225729679532</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03401870123622513</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0189063835719997</v>
+        <v>0.0106228776687776</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.001679410225930848</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01208586192636735</v>
+        <v>-0.006928406815827574</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.02750862719667532</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01065495573783861</v>
+        <v>0.01950170115099826</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.02533990204070614</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.009630455615459475</v>
+        <v>0.0439858022625931</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.0389323861523927</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02198110423339576</v>
+        <v>0.005248998491140817</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,100 +1328,100 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.003352393684934601</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03304241138277501</v>
+        <v>0.02701288455505908</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.02025060788531212</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02469435184720528</v>
+        <v>0.0224068468429422</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01325100488989905</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01164964978523472</v>
+        <v>-0.01737085642766599</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.0406539091754399</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02941084026133494</v>
+        <v>-0.004584347766881339</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.005888800772387029</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.002169439305242973</v>
+        <v>-0.06290835086042507</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.01570435231090992</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.003918150488109924</v>
+        <v>-0.01193797399651102</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.07919206992605932</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0029976803767185</v>
+        <v>0.03539537374972315</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.0815161155655162</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.007380330448890839</v>
+        <v>-0.03815334839236172</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1433,79 +1433,79 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.009042778008907763</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.03080235706616381</v>
+        <v>0.0478223489034582</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.03867461070842741</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.01027509181748633</v>
+        <v>0.01138094547169915</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.03430442848822481</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.007210468456171932</v>
+        <v>0.03762514914512365</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03006370070916905</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02298115341091373</v>
+        <v>0.009076250293154405</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.02633754827398201</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.002690521420475248</v>
+        <v>-0.01811411271780501</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.007709830898137382</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0008019975544449504</v>
+        <v>0.02457764805577892</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,52 +1517,52 @@
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05927461486691266</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.01139856818912081</v>
+        <v>-0.01100696790790678</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.002654848874162303</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.003880686525987892</v>
+        <v>-0.007207252784700634</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.07219356656252277</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.04433413210431274</v>
+        <v>-0.02542218472942176</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.01851740505980034</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
